--- a/data/eurostat_income_deciles_ilc_di01.xlsx
+++ b/data/eurostat_income_deciles_ilc_di01.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Data extracted on 11/02/2025 19:15:29 from [ESTAT]</t>
   </si>
@@ -132,7 +133,10 @@
     <t>https://ec.europa.eu/eurostat/web/income-and-living-conditions/methodology</t>
   </si>
   <si>
-    <t>equivalised disposable income post-tax and transfers</t>
+    <t>equivalised disposable income post-tax and transfers (seems to correspond to LIS' dhci cash disposable income)</t>
+  </si>
+  <si>
+    <t>LIS p75</t>
   </si>
 </sst>
 </file>
@@ -213,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -237,6 +241,9 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -525,7 +532,7 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1308,4 +1315,689 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4">
+        <v>75</v>
+      </c>
+      <c r="K1" s="4">
+        <v>80</v>
+      </c>
+      <c r="L1" s="4">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8">
+        <v>12537</v>
+      </c>
+      <c r="C2" s="8">
+        <v>16009</v>
+      </c>
+      <c r="D2" s="8">
+        <v>17502</v>
+      </c>
+      <c r="E2" s="8">
+        <v>18952</v>
+      </c>
+      <c r="F2" s="8">
+        <v>21557</v>
+      </c>
+      <c r="G2" s="8">
+        <v>24179</v>
+      </c>
+      <c r="H2" s="8">
+        <v>27006</v>
+      </c>
+      <c r="I2" s="8">
+        <v>30635</v>
+      </c>
+      <c r="J2" s="8">
+        <v>32816</v>
+      </c>
+      <c r="K2" s="8">
+        <v>35361</v>
+      </c>
+      <c r="L2" s="8">
+        <v>44071</v>
+      </c>
+      <c r="M2">
+        <f>M10*12</f>
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8">
+        <v>14000</v>
+      </c>
+      <c r="C3" s="8">
+        <v>17585</v>
+      </c>
+      <c r="D3" s="8">
+        <v>19095</v>
+      </c>
+      <c r="E3" s="8">
+        <v>20464</v>
+      </c>
+      <c r="F3" s="8">
+        <v>23311</v>
+      </c>
+      <c r="G3" s="8">
+        <v>26274</v>
+      </c>
+      <c r="H3" s="8">
+        <v>29609</v>
+      </c>
+      <c r="I3" s="8">
+        <v>33638</v>
+      </c>
+      <c r="J3" s="8">
+        <v>36081</v>
+      </c>
+      <c r="K3" s="8">
+        <v>39280</v>
+      </c>
+      <c r="L3" s="8">
+        <v>49800</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M7" si="0">M11*12</f>
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7">
+        <v>9284</v>
+      </c>
+      <c r="C4" s="7">
+        <v>12189</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13535</v>
+      </c>
+      <c r="E4" s="7">
+        <v>14708</v>
+      </c>
+      <c r="F4" s="7">
+        <v>17429</v>
+      </c>
+      <c r="G4" s="7">
+        <v>19819</v>
+      </c>
+      <c r="H4" s="7">
+        <v>22695</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25941</v>
+      </c>
+      <c r="J4" s="7">
+        <v>27972</v>
+      </c>
+      <c r="K4" s="7">
+        <v>30442</v>
+      </c>
+      <c r="L4" s="7">
+        <v>38239</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="8">
+        <v>25044</v>
+      </c>
+      <c r="C5" s="8">
+        <v>31951</v>
+      </c>
+      <c r="D5" s="8">
+        <v>34849</v>
+      </c>
+      <c r="E5" s="8">
+        <v>37388</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42263</v>
+      </c>
+      <c r="G5" s="8">
+        <v>47084</v>
+      </c>
+      <c r="H5" s="8">
+        <v>52351</v>
+      </c>
+      <c r="I5" s="8">
+        <v>59046</v>
+      </c>
+      <c r="J5" s="8">
+        <v>62955</v>
+      </c>
+      <c r="K5" s="8">
+        <v>68338</v>
+      </c>
+      <c r="L5" s="8">
+        <v>84067</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8081</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10928</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12314</v>
+      </c>
+      <c r="E6" s="7">
+        <v>13611</v>
+      </c>
+      <c r="F6" s="7">
+        <v>15901</v>
+      </c>
+      <c r="G6" s="7">
+        <v>18316</v>
+      </c>
+      <c r="H6" s="7">
+        <v>20856</v>
+      </c>
+      <c r="I6" s="7">
+        <v>23987</v>
+      </c>
+      <c r="J6" s="7">
+        <v>26032</v>
+      </c>
+      <c r="K6" s="7">
+        <v>28345</v>
+      </c>
+      <c r="L6" s="7">
+        <v>35878</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7">
+        <v>24281</v>
+      </c>
+      <c r="C7" s="7">
+        <v>31934</v>
+      </c>
+      <c r="D7" s="7">
+        <v>35095</v>
+      </c>
+      <c r="E7" s="7">
+        <v>37777</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43803</v>
+      </c>
+      <c r="G7" s="7">
+        <v>49560</v>
+      </c>
+      <c r="H7" s="7">
+        <v>56220</v>
+      </c>
+      <c r="I7" s="7">
+        <v>63479</v>
+      </c>
+      <c r="J7" s="7">
+        <v>68083</v>
+      </c>
+      <c r="K7" s="7">
+        <v>74078</v>
+      </c>
+      <c r="L7" s="7">
+        <v>92421</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>118200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4">
+        <v>60</v>
+      </c>
+      <c r="I9" s="4">
+        <v>70</v>
+      </c>
+      <c r="J9" s="4">
+        <v>75</v>
+      </c>
+      <c r="K9" s="4">
+        <v>80</v>
+      </c>
+      <c r="L9" s="4">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8">
+        <f>50*ROUND(B2/12/50,0)</f>
+        <v>1050</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:L10" si="1">50*ROUND(C2/12/50,0)</f>
+        <v>1350</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>1450</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>2550</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>2750</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="1"/>
+        <v>2950</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="1"/>
+        <v>3650</v>
+      </c>
+      <c r="M10">
+        <v>3850</v>
+      </c>
+      <c r="N10" s="9">
+        <f>M10/J10</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" ref="B11:L15" si="2">50*ROUND(B3/12/50,0)</f>
+        <v>1150</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="2"/>
+        <v>1450</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>1950</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
+        <v>2450</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="2"/>
+        <v>3250</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="2"/>
+        <v>4150</v>
+      </c>
+      <c r="M11">
+        <v>4200</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" ref="N11:N15" si="3">M11/J11</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>1450</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="2"/>
+        <v>1650</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="2"/>
+        <v>2150</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="2"/>
+        <v>2350</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="2"/>
+        <v>2550</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+      <c r="M12">
+        <v>2750</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1702127659574468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="2"/>
+        <v>2650</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="2"/>
+        <v>3900</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>4350</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="2"/>
+        <v>4900</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="2"/>
+        <v>5250</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="2"/>
+        <v>5700</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="M13">
+        <v>5100</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>1350</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="2"/>
+        <v>1550</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="2"/>
+        <v>2150</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="2"/>
+        <v>2350</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="M14">
+        <v>3150</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="3"/>
+        <v>1.4651162790697674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="2"/>
+        <v>2650</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="2"/>
+        <v>3150</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>3650</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="2"/>
+        <v>4150</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>4700</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="2"/>
+        <v>5300</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="2"/>
+        <v>5650</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="2"/>
+        <v>6150</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+      <c r="M15">
+        <v>9850</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="3"/>
+        <v>1.7433628318584071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/eurostat_income_deciles_ilc_di01.xlsx
+++ b/data/eurostat_income_deciles_ilc_di01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Data extracted on 11/02/2025 19:15:29 from [ESTAT]</t>
   </si>
@@ -137,13 +137,16 @@
   </si>
   <si>
     <t>LIS p75</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di01/default/table?lang=en&amp;category=livcon.ilc.ilc_ip.ilc_di</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -155,16 +158,27 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -214,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -246,8 +261,10 @@
     <xf numFmtId="4" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,7 +549,7 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -582,7 +599,7 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -604,6 +621,9 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1313,6 +1333,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/eurostat_income_deciles_ilc_di01.xlsx
+++ b/data/eurostat_income_deciles_ilc_di01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Data extracted on 11/02/2025 19:15:29 from [ESTAT]</t>
   </si>
@@ -543,13 +543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1332,6 +1332,44 @@
         <v>51810</v>
       </c>
     </row>
+    <row r="21" spans="1:26" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8">
+        <v>8391</v>
+      </c>
+      <c r="C21" s="8">
+        <v>11687</v>
+      </c>
+      <c r="D21" s="8">
+        <v>13090</v>
+      </c>
+      <c r="E21" s="8">
+        <v>14387</v>
+      </c>
+      <c r="F21" s="8">
+        <v>16887</v>
+      </c>
+      <c r="G21" s="8">
+        <v>19307</v>
+      </c>
+      <c r="H21" s="8">
+        <v>22172</v>
+      </c>
+      <c r="I21" s="8">
+        <v>25381</v>
+      </c>
+      <c r="J21" s="8">
+        <v>27399</v>
+      </c>
+      <c r="K21" s="8">
+        <v>29828</v>
+      </c>
+      <c r="L21" s="8">
+        <v>37303</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
